--- a/www/IndicatorsPerCountry/Kazakhstan_CopperProduction_TerritorialRef_1991_2012_CCode_398.xlsx
+++ b/www/IndicatorsPerCountry/Kazakhstan_CopperProduction_TerritorialRef_1991_2012_CCode_398.xlsx
@@ -291,13 +291,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Kazakhstan_CopperProduction_TerritorialRef_1991_2012_CCode_398.xlsx
+++ b/www/IndicatorsPerCountry/Kazakhstan_CopperProduction_TerritorialRef_1991_2012_CCode_398.xlsx
@@ -42,166 +42,166 @@
     <t/>
   </si>
   <si>
-    <t>0.577593722755</t>
-  </si>
-  <si>
-    <t>0.837510897995</t>
-  </si>
-  <si>
-    <t>1.01078901482</t>
-  </si>
-  <si>
-    <t>1.90605928509</t>
-  </si>
-  <si>
-    <t>3.46556233653</t>
-  </si>
-  <si>
-    <t>3.81211857018</t>
-  </si>
-  <si>
-    <t>5.25610287707</t>
-  </si>
-  <si>
-    <t>7.21992153444</t>
-  </si>
-  <si>
-    <t>8.66390584133</t>
-  </si>
-  <si>
-    <t>8.37510897995</t>
-  </si>
-  <si>
-    <t>11.5518744551</t>
-  </si>
-  <si>
-    <t>15.8838273758</t>
-  </si>
-  <si>
-    <t>21.0821708806</t>
-  </si>
-  <si>
-    <t>25.991717524</t>
-  </si>
-  <si>
-    <t>28.8796861378</t>
-  </si>
-  <si>
-    <t>31.7676547515</t>
-  </si>
-  <si>
-    <t>36.3884045336</t>
-  </si>
-  <si>
-    <t>41.0091543156</t>
-  </si>
-  <si>
-    <t>38.1211857018</t>
-  </si>
-  <si>
-    <t>35.2332170881</t>
-  </si>
-  <si>
-    <t>49.9618570183</t>
-  </si>
-  <si>
-    <t>56.4597863993</t>
-  </si>
-  <si>
-    <t>62.9577157803</t>
-  </si>
-  <si>
-    <t>73.3544027899</t>
-  </si>
-  <si>
-    <t>85.1950741064</t>
-  </si>
-  <si>
-    <t>89.527027027</t>
-  </si>
-  <si>
-    <t>109.742807323</t>
-  </si>
-  <si>
-    <t>115.518744551</t>
-  </si>
-  <si>
-    <t>121.294681779</t>
-  </si>
-  <si>
-    <t>118.406713165</t>
-  </si>
-  <si>
-    <t>122.738666085</t>
-  </si>
-  <si>
-    <t>125.626634699</t>
-  </si>
-  <si>
-    <t>144.398430689</t>
-  </si>
-  <si>
-    <t>158.838273758</t>
-  </si>
-  <si>
-    <t>187.717959895</t>
-  </si>
-  <si>
-    <t>202.157802964</t>
-  </si>
-  <si>
-    <t>216.597646033</t>
-  </si>
-  <si>
-    <t>231.037489102</t>
-  </si>
-  <si>
-    <t>238.257410636</t>
-  </si>
-  <si>
-    <t>245.477332171</t>
-  </si>
-  <si>
-    <t>252.697253705</t>
-  </si>
-  <si>
-    <t>267.137096774</t>
-  </si>
-  <si>
-    <t>285.908892764</t>
-  </si>
-  <si>
-    <t>297.460767219</t>
-  </si>
-  <si>
-    <t>317.676547515</t>
-  </si>
-  <si>
-    <t>346.556233653</t>
-  </si>
-  <si>
-    <t>326.340453357</t>
-  </si>
-  <si>
-    <t>249.809285092</t>
-  </si>
-  <si>
-    <t>255.585222319</t>
-  </si>
-  <si>
-    <t>259.91717524</t>
-  </si>
-  <si>
-    <t>274.357018309</t>
-  </si>
-  <si>
-    <t>291.684829991</t>
-  </si>
-  <si>
-    <t>294.572798605</t>
-  </si>
-  <si>
-    <t>242.589363557</t>
+    <t>0.577593722755013</t>
+  </si>
+  <si>
+    <t>0.837510897994769</t>
+  </si>
+  <si>
+    <t>1.01078901482127</t>
+  </si>
+  <si>
+    <t>1.90605928509154</t>
+  </si>
+  <si>
+    <t>3.46556233653008</t>
+  </si>
+  <si>
+    <t>3.81211857018309</t>
+  </si>
+  <si>
+    <t>5.25610287707062</t>
+  </si>
+  <si>
+    <t>7.21992153443766</t>
+  </si>
+  <si>
+    <t>8.6639058413252</t>
+  </si>
+  <si>
+    <t>8.37510897994769</t>
+  </si>
+  <si>
+    <t>11.5518744551003</t>
+  </si>
+  <si>
+    <t>15.8838273757629</t>
+  </si>
+  <si>
+    <t>21.082170880558</t>
+  </si>
+  <si>
+    <t>25.9917175239756</t>
+  </si>
+  <si>
+    <t>28.8796861377507</t>
+  </si>
+  <si>
+    <t>31.7676547515257</t>
+  </si>
+  <si>
+    <t>36.3884045335658</t>
+  </si>
+  <si>
+    <t>41.0091543156059</t>
+  </si>
+  <si>
+    <t>38.1211857018309</t>
+  </si>
+  <si>
+    <t>35.2332170880558</t>
+  </si>
+  <si>
+    <t>49.9618570183086</t>
+  </si>
+  <si>
+    <t>56.4597863993025</t>
+  </si>
+  <si>
+    <t>62.9577157802964</t>
+  </si>
+  <si>
+    <t>73.3544027898867</t>
+  </si>
+  <si>
+    <t>85.1950741063644</t>
+  </si>
+  <si>
+    <t>89.527027027027</t>
+  </si>
+  <si>
+    <t>109.742807323452</t>
+  </si>
+  <si>
+    <t>115.518744551003</t>
+  </si>
+  <si>
+    <t>121.294681778553</t>
+  </si>
+  <si>
+    <t>118.406713164778</t>
+  </si>
+  <si>
+    <t>122.73866608544</t>
+  </si>
+  <si>
+    <t>125.626634699215</t>
+  </si>
+  <si>
+    <t>144.398430688753</t>
+  </si>
+  <si>
+    <t>158.838273757629</t>
+  </si>
+  <si>
+    <t>187.717959895379</t>
+  </si>
+  <si>
+    <t>202.157802964255</t>
+  </si>
+  <si>
+    <t>216.59764603313</t>
+  </si>
+  <si>
+    <t>231.037489102005</t>
+  </si>
+  <si>
+    <t>238.257410636443</t>
+  </si>
+  <si>
+    <t>245.477332170881</t>
+  </si>
+  <si>
+    <t>252.697253705318</t>
+  </si>
+  <si>
+    <t>267.137096774194</t>
+  </si>
+  <si>
+    <t>285.908892763732</t>
+  </si>
+  <si>
+    <t>297.460767218832</t>
+  </si>
+  <si>
+    <t>317.676547515257</t>
+  </si>
+  <si>
+    <t>346.556233653008</t>
+  </si>
+  <si>
+    <t>326.340453356582</t>
+  </si>
+  <si>
+    <t>249.809285091543</t>
+  </si>
+  <si>
+    <t>255.585222319093</t>
+  </si>
+  <si>
+    <t>259.917175239756</t>
+  </si>
+  <si>
+    <t>274.357018308631</t>
+  </si>
+  <si>
+    <t>291.684829991282</t>
+  </si>
+  <si>
+    <t>294.572798605057</t>
+  </si>
+  <si>
+    <t>242.589363557105</t>
   </si>
   <si>
     <t>265</t>
